--- a/Code Lists/PEPPOL Code Lists - Processes v6 draft.xlsx
+++ b/Code Lists/PEPPOL Code Lists - Processes v6 draft.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="110" windowWidth="18920" windowHeight="12300"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="18915" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Process" sheetId="5" r:id="rId1"/>
@@ -17,10 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="82">
-  <si>
-    <t>Profile code</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="89">
   <si>
     <t>Profile ID</t>
   </si>
@@ -263,6 +260,30 @@
   </si>
   <si>
     <t>PEPPOL BIS Message Level Response 3.0</t>
+  </si>
+  <si>
+    <t>PEF.PL Accounting Note v1</t>
+  </si>
+  <si>
+    <t>urn:fdc:www.efaktura.gov.pl:ver1.0:account_corr:ver1.0</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Profile Name</t>
+  </si>
+  <si>
+    <t>PEF.PL Correcting Invoice v1</t>
+  </si>
+  <si>
+    <t>urn:fdc:www.efaktura.gov.pl:ver1.0:corr_inv:ver1.0</t>
+  </si>
+  <si>
+    <t>PEF.PL Receipt Advice v1</t>
+  </si>
+  <si>
+    <t>urn:fdc:www.efaktura.gov.pl:ver1.0:receipt_advice:ver1.0</t>
   </si>
 </sst>
 </file>
@@ -775,87 +796,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21:D28"/>
+      <selection pane="bottomLeft" activeCell="E31" sqref="E31:F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="36.81640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.54296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.28515625" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.54296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.453125" style="8"/>
+    <col min="6" max="6" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.42578125" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="11" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" s="4" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="F3" s="4" t="b">
         <v>0</v>
@@ -863,43 +884,43 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" s="4" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" s="4" t="b">
         <v>0</v>
@@ -907,43 +928,43 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6" s="4" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" s="4" t="b">
         <v>0</v>
@@ -951,42 +972,42 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" s="4" t="b">
         <v>1</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9" s="4" t="b">
         <v>0</v>
@@ -994,19 +1015,19 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" s="4" t="b">
         <v>0</v>
@@ -1014,43 +1035,43 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F11" s="4" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F12" s="8" t="b">
         <v>0</v>
@@ -1058,19 +1079,19 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F13" s="8" t="b">
         <v>0</v>
@@ -1078,19 +1099,19 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F14" s="8" t="b">
         <v>0</v>
@@ -1098,19 +1119,19 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D15" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>45</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>46</v>
       </c>
       <c r="F15" s="8" t="b">
         <v>0</v>
@@ -1118,19 +1139,19 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F16" s="8" t="b">
         <v>0</v>
@@ -1138,19 +1159,19 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F17" s="8" t="b">
         <v>0</v>
@@ -1158,16 +1179,16 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C18" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>58</v>
-      </c>
       <c r="E18" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F18" s="15" t="b">
         <v>0</v>
@@ -1175,16 +1196,16 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="15" t="s">
-        <v>57</v>
-      </c>
       <c r="D19" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F19" s="15" t="b">
         <v>0</v>
@@ -1192,19 +1213,19 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="10" t="s">
         <v>64</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>65</v>
       </c>
       <c r="F20" s="15" t="b">
         <v>0</v>
@@ -1212,16 +1233,16 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F21" s="15" t="b">
         <v>0</v>
@@ -1229,16 +1250,16 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F22" s="15" t="b">
         <v>0</v>
@@ -1246,16 +1267,16 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F23" s="15" t="b">
         <v>0</v>
@@ -1263,16 +1284,16 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F24" s="15" t="b">
         <v>0</v>
@@ -1280,16 +1301,16 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F25" s="15" t="b">
         <v>0</v>
@@ -1297,16 +1318,16 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F26" s="15" t="b">
         <v>0</v>
@@ -1314,16 +1335,16 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F27" s="15" t="b">
         <v>0</v>
@@ -1331,18 +1352,69 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F28" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C28" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="F28" s="15" t="b">
+      <c r="C29" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F29" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F30" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F31" s="15" t="b">
         <v>0</v>
       </c>
     </row>
